--- a/Campionato/PrimaSquadra/reportistica_PrimaSquadra.xlsx
+++ b/Campionato/PrimaSquadra/reportistica_PrimaSquadra.xlsx
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>5</v>
